--- a/doc/Testy.xlsx
+++ b/doc/Testy.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
   <si>
     <t>LP</t>
   </si>
@@ -127,19 +127,19 @@
     <t>Testy na zbieżność</t>
   </si>
   <si>
-    <t>dane do wykresu</t>
+    <t>wyniki 4 prób</t>
   </si>
   <si>
-    <t>pierwszy wykres</t>
+    <t>próba pierwsza</t>
   </si>
   <si>
-    <t>drugi wykres</t>
+    <t>próba druga</t>
   </si>
   <si>
-    <t>trzeci wykres</t>
+    <t>próba trzecia</t>
   </si>
   <si>
-    <t>czwarty wykres</t>
+    <t>próba czwarta</t>
   </si>
   <si>
     <t>najgorszy - 138 epoka</t>
@@ -152,6 +152,12 @@
   </si>
   <si>
     <t>ok. 20 min</t>
+  </si>
+  <si>
+    <t>Test dla optymalnych parametrów</t>
+  </si>
+  <si>
+    <t>Wyniki</t>
   </si>
 </sst>
 </file>
@@ -265,11 +271,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1697823339"/>
-        <c:axId val="1053499461"/>
+        <c:axId val="239058697"/>
+        <c:axId val="1608294925"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1697823339"/>
+        <c:axId val="239058697"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -301,10 +307,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1053499461"/>
+        <c:crossAx val="1608294925"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1053499461"/>
+        <c:axId val="1608294925"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -352,7 +358,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1697823339"/>
+        <c:crossAx val="239058697"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -417,11 +423,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1767663884"/>
-        <c:axId val="1374692600"/>
+        <c:axId val="343083034"/>
+        <c:axId val="2058611174"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1767663884"/>
+        <c:axId val="343083034"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -453,10 +459,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1374692600"/>
+        <c:crossAx val="2058611174"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1374692600"/>
+        <c:axId val="2058611174"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -504,13 +510,162 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1767663884"/>
+        <c:crossAx val="343083034"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
       <c:overlay val="0"/>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="1" sz="1600">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>Parametry: liczba mrówek = 500, współczynnik parowania = 0.999</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln cmpd="sng" w="25400">
+              <a:solidFill>
+                <a:srgbClr val="3366CC"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$102:$B$112</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$102:$C$112</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="353015618"/>
+        <c:axId val="860103518"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="353015618"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>iteracja</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr/>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="860103518"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="860103518"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="40.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>rozwiązanie</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47625">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr/>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="353015618"/>
+      </c:valAx>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
   </c:chart>
 </c:chartSpace>
@@ -578,6 +733,36 @@
     </xdr:graphicFrame>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 3" title="Wykres"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4743,7 +4928,9 @@
     </row>
     <row r="98">
       <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
+      <c r="B98" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -4775,13 +4962,27 @@
     </row>
     <row r="99">
       <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
+      <c r="B99" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="C99" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="D99" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="E99" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F99" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G99" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="H99" s="1">
+        <v>1.0</v>
+      </c>
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
       <c r="K99" s="3"/>
@@ -4839,7 +5040,9 @@
     </row>
     <row r="101">
       <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
+      <c r="B101" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -4871,8 +5074,12 @@
     </row>
     <row r="102">
       <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
+      <c r="B102" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="C102" s="1">
+        <v>4.0</v>
+      </c>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
@@ -4903,8 +5110,12 @@
     </row>
     <row r="103">
       <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
+      <c r="B103" s="1">
+        <v>150.0</v>
+      </c>
+      <c r="C103" s="1">
+        <v>8.0</v>
+      </c>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
@@ -4935,8 +5146,12 @@
     </row>
     <row r="104">
       <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
+      <c r="B104" s="1">
+        <v>250.0</v>
+      </c>
+      <c r="C104" s="1">
+        <v>8.0</v>
+      </c>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
@@ -4967,8 +5182,12 @@
     </row>
     <row r="105">
       <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
+      <c r="B105" s="1">
+        <v>350.0</v>
+      </c>
+      <c r="C105" s="1">
+        <v>8.0</v>
+      </c>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
@@ -4999,8 +5218,12 @@
     </row>
     <row r="106">
       <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
+      <c r="B106" s="1">
+        <v>450.0</v>
+      </c>
+      <c r="C106" s="1">
+        <v>6.0</v>
+      </c>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
@@ -5031,8 +5254,12 @@
     </row>
     <row r="107">
       <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
+      <c r="B107" s="1">
+        <v>550.0</v>
+      </c>
+      <c r="C107" s="1">
+        <v>4.0</v>
+      </c>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
@@ -5063,8 +5290,12 @@
     </row>
     <row r="108">
       <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
+      <c r="B108" s="1">
+        <v>650.0</v>
+      </c>
+      <c r="C108" s="1">
+        <v>4.0</v>
+      </c>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
@@ -5095,8 +5326,12 @@
     </row>
     <row r="109">
       <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
+      <c r="B109" s="1">
+        <v>750.0</v>
+      </c>
+      <c r="C109" s="1">
+        <v>4.0</v>
+      </c>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
@@ -5127,8 +5362,12 @@
     </row>
     <row r="110">
       <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
-      <c r="C110" s="3"/>
+      <c r="B110" s="1">
+        <v>850.0</v>
+      </c>
+      <c r="C110" s="1">
+        <v>3.0</v>
+      </c>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
@@ -5159,8 +5398,12 @@
     </row>
     <row r="111">
       <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
+      <c r="B111" s="1">
+        <v>950.0</v>
+      </c>
+      <c r="C111" s="1">
+        <v>8.0</v>
+      </c>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
@@ -5191,8 +5434,12 @@
     </row>
     <row r="112">
       <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
-      <c r="C112" s="3"/>
+      <c r="B112" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="C112" s="1">
+        <v>4.0</v>
+      </c>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
